--- a/AutodeskCost/Autodesk費用統整/Autodesk費用統整-11312.xlsx
+++ b/AutodeskCost/Autodesk費用統整/Autodesk費用統整-11312.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donald\Desktop\Autodesk費用_測試\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donald\Desktop\Autodesk測試\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D595179-703E-4E07-9CC1-07FF22D04AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F2BE15-B8A3-42C8-8C79-9331FF554F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1925,14 +1925,14 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2228,13 +2228,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.375" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="31"/>
+    <col min="1" max="1" width="9.75" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.375" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
@@ -3115,8 +3115,8 @@
   <dimension ref="A1:L112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.25" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3171,20 +3171,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -3225,20 +3225,20 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -3279,20 +3279,20 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
@@ -3363,20 +3363,20 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
@@ -3447,20 +3447,20 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
@@ -3501,20 +3501,20 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
@@ -3585,20 +3585,20 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
@@ -3699,20 +3699,20 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
@@ -3783,20 +3783,20 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
@@ -3837,20 +3837,20 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
@@ -3951,20 +3951,20 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+      <c r="A30" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
@@ -4065,20 +4065,20 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
+      <c r="A34" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
@@ -4179,20 +4179,20 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
@@ -4263,20 +4263,20 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="L41" s="29"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -4317,20 +4317,20 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
@@ -4371,20 +4371,20 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="29" t="s">
+      <c r="A45" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
@@ -4425,20 +4425,20 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
@@ -4479,20 +4479,20 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
+      <c r="A49" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="29"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="29"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
@@ -6333,20 +6333,20 @@
       </c>
     </row>
     <row r="111" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="29" t="s">
+      <c r="A111" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="B111" s="29"/>
-      <c r="C111" s="29"/>
-      <c r="D111" s="29"/>
-      <c r="E111" s="29"/>
-      <c r="F111" s="29"/>
-      <c r="G111" s="29"/>
-      <c r="H111" s="29"/>
-      <c r="I111" s="29"/>
-      <c r="J111" s="29"/>
-      <c r="K111" s="29"/>
-      <c r="L111" s="29"/>
+      <c r="B111" s="30"/>
+      <c r="C111" s="30"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="30"/>
+      <c r="G111" s="30"/>
+      <c r="H111" s="30"/>
+      <c r="I111" s="30"/>
+      <c r="J111" s="30"/>
+      <c r="K111" s="30"/>
+      <c r="L111" s="30"/>
     </row>
     <row r="112" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
@@ -6375,22 +6375,14 @@
       <c r="J112" s="10">
         <v>78524</v>
       </c>
-      <c r="K112" s="30">
+      <c r="K112" s="31">
         <v>313003</v>
       </c>
-      <c r="L112" s="30"/>
+      <c r="L112" s="31"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="20">
-    <mergeCell ref="A111:L111"/>
-    <mergeCell ref="K112:L112"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="A45:L45"/>
-    <mergeCell ref="A47:L47"/>
-    <mergeCell ref="A49:L49"/>
     <mergeCell ref="A34:L34"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A4:L4"/>
@@ -6403,6 +6395,14 @@
     <mergeCell ref="A24:L24"/>
     <mergeCell ref="A26:L26"/>
     <mergeCell ref="A30:L30"/>
+    <mergeCell ref="A111:L111"/>
+    <mergeCell ref="K112:L112"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="A45:L45"/>
+    <mergeCell ref="A47:L47"/>
+    <mergeCell ref="A49:L49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
